--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="264" windowWidth="14340" windowHeight="4272" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4275" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="270"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
@@ -215,12 +220,16 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,113 +355,116 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -463,10 +475,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -501,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,9 +546,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,6 +598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,7 +670,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -633,13 +679,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -649,7 +695,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -658,7 +704,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -667,7 +713,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -677,12 +723,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -713,7 +759,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -732,7 +778,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -744,22 +790,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -787,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -801,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -815,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -830,29 +876,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -899,7 +945,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -920,7 +966,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -941,7 +987,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -962,7 +1008,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -983,7 +1029,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
@@ -1003,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
@@ -1023,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
@@ -1043,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -1063,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
@@ -1083,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
@@ -1103,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>41</v>
       </c>
@@ -1123,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>42</v>
       </c>
@@ -1143,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
@@ -1164,33 +1210,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="56.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="56.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
@@ -1231,7 +1277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1266,7 +1312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1301,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1336,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1371,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1406,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1441,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1476,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1511,7 +1557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1546,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1581,7 +1627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -1616,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1651,7 +1697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1686,7 +1732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1722,31 +1768,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="49.9" r="2" s="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -1810,7 +1856,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>61</v>
@@ -1823,6 +1869,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4275" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="270"/>
+    <workbookView xWindow="396" yWindow="276" windowWidth="14340" windowHeight="4272" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="66">
   <si>
     <t>TC</t>
   </si>
@@ -211,9 +206,6 @@
   </si>
   <si>
     <t>Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -228,8 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,110 +346,110 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -475,10 +466,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -513,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,26 +537,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,23 +572,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,7 +627,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -679,13 +636,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -695,7 +652,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -704,7 +661,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -713,7 +670,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -723,12 +680,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -759,7 +716,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -778,7 +735,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -790,22 +747,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -833,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -847,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -861,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -876,29 +833,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -945,7 +902,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -966,7 +923,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -987,7 +944,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +965,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -1029,7 +986,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
@@ -1069,7 +1026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -1109,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
@@ -1129,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
@@ -1149,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>41</v>
       </c>
@@ -1169,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
@@ -1210,33 +1167,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="56.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="56.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
@@ -1277,15 +1234,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>24</v>
@@ -1300,7 +1257,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>59</v>
@@ -1312,15 +1269,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>24</v>
@@ -1335,7 +1292,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>59</v>
@@ -1347,15 +1304,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>24</v>
@@ -1370,7 +1327,7 @@
         <v>58</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>59</v>
@@ -1382,15 +1339,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>24</v>
@@ -1405,7 +1362,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>59</v>
@@ -1417,15 +1374,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>24</v>
@@ -1440,7 +1397,7 @@
         <v>58</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>59</v>
@@ -1452,15 +1409,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>24</v>
@@ -1475,7 +1432,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>59</v>
@@ -1487,15 +1444,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>24</v>
@@ -1510,7 +1467,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>59</v>
@@ -1522,15 +1479,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>24</v>
@@ -1545,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>59</v>
@@ -1557,15 +1514,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>24</v>
@@ -1580,7 +1537,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>59</v>
@@ -1592,15 +1549,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>24</v>
@@ -1615,7 +1572,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>59</v>
@@ -1627,15 +1584,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>24</v>
@@ -1650,7 +1607,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>59</v>
@@ -1662,15 +1619,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>24</v>
@@ -1685,7 +1642,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>59</v>
@@ -1697,15 +1654,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>24</v>
@@ -1720,7 +1677,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>59</v>
@@ -1732,15 +1689,15 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="45" r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>24</v>
@@ -1755,7 +1712,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>59</v>
@@ -1768,31 +1725,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.85546875" collapsed="true"/>
+    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1833,15 +1790,15 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="49.9" r="2" s="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>24</v>
@@ -1856,7 +1813,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>61</v>
@@ -1869,6 +1826,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="396" yWindow="276" windowWidth="14340" windowHeight="4272" activeTab="2"/>
+    <workbookView activeTab="3" windowHeight="4275" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="270"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
@@ -206,6 +211,9 @@
   </si>
   <si>
     <t>Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx</t>
+  </si>
+  <si>
+    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -220,7 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,110 +355,110 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -466,10 +475,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -504,7 +513,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,9 +546,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,6 +598,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,7 +670,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -636,13 +679,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,7 +695,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -661,7 +704,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -670,7 +713,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -680,12 +723,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -716,7 +759,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -735,7 +778,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -747,22 +790,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -790,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -804,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -818,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -833,29 +876,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -902,7 +945,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -923,7 +966,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
@@ -944,7 +987,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
@@ -965,7 +1008,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -986,7 +1029,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
@@ -1006,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
@@ -1026,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>37</v>
       </c>
@@ -1046,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -1066,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
@@ -1086,7 +1129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>40</v>
       </c>
@@ -1106,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>41</v>
       </c>
@@ -1126,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>42</v>
       </c>
@@ -1146,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
@@ -1167,33 +1210,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="56.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="49.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="56.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>48</v>
       </c>
@@ -1234,15 +1277,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>24</v>
@@ -1257,7 +1300,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>59</v>
@@ -1269,15 +1312,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>24</v>
@@ -1292,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>59</v>
@@ -1304,15 +1347,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>24</v>
@@ -1327,7 +1370,7 @@
         <v>58</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>59</v>
@@ -1339,15 +1382,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>24</v>
@@ -1362,7 +1405,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>59</v>
@@ -1374,15 +1417,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>24</v>
@@ -1397,7 +1440,7 @@
         <v>58</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>59</v>
@@ -1409,15 +1452,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>24</v>
@@ -1432,7 +1475,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>59</v>
@@ -1444,15 +1487,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>24</v>
@@ -1467,7 +1510,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>59</v>
@@ -1479,15 +1522,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>24</v>
@@ -1502,7 +1545,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>59</v>
@@ -1514,15 +1557,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>24</v>
@@ -1537,7 +1580,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>59</v>
@@ -1549,15 +1592,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>24</v>
@@ -1572,7 +1615,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>59</v>
@@ -1584,15 +1627,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>24</v>
@@ -1607,7 +1650,7 @@
         <v>58</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>59</v>
@@ -1619,15 +1662,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>24</v>
@@ -1642,7 +1685,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>59</v>
@@ -1654,15 +1697,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>24</v>
@@ -1677,7 +1720,7 @@
         <v>58</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>59</v>
@@ -1689,15 +1732,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="45" r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>24</v>
@@ -1712,7 +1755,7 @@
         <v>58</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>59</v>
@@ -1725,31 +1768,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1790,15 +1833,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="49.9" r="2" s="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>24</v>
@@ -1813,7 +1856,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>61</v>
@@ -1826,6 +1869,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite GeneralTaxRateWeek1LDOD1BRNTOTK50percentRL201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="67">
   <si>
     <t>TC</t>
   </si>
